--- a/backup/Product-2023-09-19.xlsx
+++ b/backup/Product-2023-09-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RyowuTestCode\dje\ecommerce\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886C4B1-37D8-4B4F-A9B3-F9AD4C8A4425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE05A576-AC3C-413D-A5EF-A6B7CFED7149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="477">
   <si>
     <t>id</t>
   </si>
@@ -1443,6 +1443,61 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052137/bigbear/product%E7%94%A2%E5%93%81/%E6%9C%88%E6%9B%86%E5%8D%80/HY-03-1_%E6%97%A5%E6%9C%AC%E9%90%B5%E9%81%93%E5%BF%83%E6%97%85%E8%A1%8C-2_nv2wv6.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052122/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-PXXA_%E5%82%B3%E7%B5%B1%E5%90%88%E6%88%90%E7%9A%AE%E8%A8%98%E4%BA%8B%E6%9C%AC_%E9%BB%91%E8%89%B2_mrvfgz.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052122/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-PXXA_%E5%82%B3%E7%B5%B1%E5%90%88%E6%88%90%E7%9A%AE%E8%A8%98%E4%BA%8B%E6%9C%AC_%E9%BB%91%E8%89%B2_mrvfgz.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052122/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-PXXA_%E5%82%B3%E7%B5%B1%E5%90%88%E6%88%90%E7%9A%AE%E8%A8%98%E4%BA%8B%E6%9C%AC_%E8%97%8D%E8%89%B2_hf4yl4.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052120/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-PXXA_%E5%82%B3%E7%B5%B1%E5%90%88%E6%88%90%E7%9A%AE%E8%A8%98%E4%BA%8B%E6%9C%AC_%E7%B4%85%E8%89%B2_nnl9cw.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052116/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P48B_%E8%8B%B1%E5%80%AB%E6%A0%BC%E7%B4%8B%E9%87%9D%E8%BB%8A%E7%9A%AE_%E8%97%8D%E8%89%B2_ciji9q.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052125/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-PXXB_%E8%8B%B1%E5%80%AB%E6%A0%BC%E7%B4%8B%E9%87%9D%E8%BB%8A%E7%9A%AE_%E8%97%8D%E8%89%B2_p7l7gb.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052124/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-PXXB_%E8%8B%B1%E5%80%AB%E6%A0%BC%E7%B4%8B%E9%87%9D%E8%BB%8A%E7%9A%AE_%E7%B4%85%E8%89%B2_xggcfk.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052117/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P48I_%E9%87%9D%E8%BB%8A%E7%92%B0%E4%BF%9D%E7%9A%AE_%E7%B4%85%E8%89%B2_dlabtk.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052118/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P48I_%E9%87%9D%E8%BB%8A%E7%92%B0%E4%BF%9D%E7%9A%AE_%E7%B6%A0%E8%89%B2_m97kqs.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052119/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P48S_%E5%AD%B8%E9%99%A2%E9%A2%A8%E9%87%9D%E8%BB%8A%E7%9A%AE_%E5%A4%A7%E8%B1%A1%E7%81%B0_gx9fuq.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052120/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P48S_%E5%AD%B8%E9%99%A2%E9%A2%A8%E9%87%9D%E8%BB%8A%E7%9A%AE_%E7%84%A6%E7%B3%96%E8%89%B2_dkub9i.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052116/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P25S_%E5%AD%B8%E9%99%A2%E9%A2%A8%E9%87%9D%E8%BB%8A%E7%9A%AE_%E8%8B%B1%E5%9C%8B%E8%97%8D_jg9uxm.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052115/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P25S_%E5%AD%B8%E9%99%A2%E9%A2%A8%E9%87%9D%E8%BB%8A%E7%9A%AE_%E7%84%A6%E7%B3%96%E8%89%B2_ecf0iy.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052114/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P25S_%E5%AD%B8%E9%99%A2%E9%A2%A8%E9%87%9D%E8%BB%8A%E7%9A%AE_%E5%A4%A7%E8%B1%A1%E7%81%B0_cuk8u0.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052113/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P25H_%E6%99%82%E5%B0%9A%E9%9B%99%E6%8B%BC%E9%87%9D%E8%BB%8A%E7%9A%AE_%E8%97%8D%E8%89%B2_u62cua.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052112/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P25H_%E6%99%82%E5%B0%9A%E9%9B%99%E6%8B%BC%E9%87%9D%E8%BB%8A%E7%9A%AE_%E7%81%B0%E8%89%B2_ug1o80.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052112/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/HY-P25H_%E6%99%82%E5%B0%9A%E9%9B%99%E6%8B%BC%E9%87%9D%E8%BB%8A%E7%9A%AE_%E5%92%96%E5%95%A1%E8%89%B2_ghrmlg.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dp53ha8ie/image/upload/v1695052126/bigbear/product%E7%94%A2%E5%93%81/%E5%B7%A5%E5%95%86%E6%89%8B%E5%86%8A%E5%8D%80/%E5%B0%BA%E5%AF%B8%E5%8F%8A%E6%A8%A3%E5%BC%8F_bn3wlb.jpg</t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1556,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1812,20 +1866,30 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.375" style="2"/>
-    <col min="5" max="5" width="41.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37.125" style="2" customWidth="1"/>
-    <col min="7" max="18" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="20.375" style="2"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="205.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1885,4472 +1949,4656 @@
       </c>
     </row>
     <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>102</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="L2" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M2" s="2">
-        <v>120</v>
-      </c>
-      <c r="N2" s="2">
-        <v>100</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="L2">
+        <v>10000000</v>
+      </c>
+      <c r="M2">
+        <v>120</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>101</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="L3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M3" s="2">
-        <v>120</v>
-      </c>
-      <c r="N3" s="2">
-        <v>100</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="L3">
+        <v>10000000</v>
+      </c>
+      <c r="M3">
+        <v>120</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="L4" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M4" s="2">
-        <v>120</v>
-      </c>
-      <c r="N4" s="2">
-        <v>100</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="L4">
+        <v>10000000</v>
+      </c>
+      <c r="M4">
+        <v>120</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>99</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="L5" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M5" s="2">
-        <v>120</v>
-      </c>
-      <c r="N5" s="2">
-        <v>100</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="L5">
+        <v>10000000</v>
+      </c>
+      <c r="M5">
+        <v>120</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>98</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="L6" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M6" s="2">
-        <v>120</v>
-      </c>
-      <c r="N6" s="2">
-        <v>100</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="L6">
+        <v>10000000</v>
+      </c>
+      <c r="M6">
+        <v>120</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>97</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L7" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M7" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" s="2">
-        <v>100</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="L7">
+        <v>10000000</v>
+      </c>
+      <c r="M7">
+        <v>120</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
         <v>37</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>96</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="L8" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M8" s="2">
-        <v>120</v>
-      </c>
-      <c r="N8" s="2">
-        <v>100</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="L8">
+        <v>10000000</v>
+      </c>
+      <c r="M8">
+        <v>120</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>95</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="L9" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M9" s="2">
-        <v>120</v>
-      </c>
-      <c r="N9" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2" t="s">
+      <c r="L9">
+        <v>10000000</v>
+      </c>
+      <c r="M9">
+        <v>120</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>94</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="L10" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M10" s="2">
-        <v>120</v>
-      </c>
-      <c r="N10" s="2">
-        <v>100</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+      <c r="L10">
+        <v>10000000</v>
+      </c>
+      <c r="M10">
+        <v>120</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>93</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="L11" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M11" s="2">
-        <v>120</v>
-      </c>
-      <c r="N11" s="2">
-        <v>100</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="2" t="s">
+      <c r="L11">
+        <v>10000000</v>
+      </c>
+      <c r="M11">
+        <v>120</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>92</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="L12" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M12" s="2">
-        <v>120</v>
-      </c>
-      <c r="N12" s="2">
-        <v>100</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="2" t="s">
+      <c r="L12">
+        <v>10000000</v>
+      </c>
+      <c r="M12">
+        <v>120</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
         <v>53</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>91</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="L13" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M13" s="2">
-        <v>120</v>
-      </c>
-      <c r="N13" s="2">
-        <v>100</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="L13">
+        <v>10000000</v>
+      </c>
+      <c r="M13">
+        <v>120</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>90</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="L14" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M14" s="2">
-        <v>120</v>
-      </c>
-      <c r="N14" s="2">
-        <v>100</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+      <c r="L14">
+        <v>10000000</v>
+      </c>
+      <c r="M14">
+        <v>120</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>89</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="L15" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M15" s="2">
-        <v>120</v>
-      </c>
-      <c r="N15" s="2">
-        <v>100</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="L15">
+        <v>10000000</v>
+      </c>
+      <c r="M15">
+        <v>120</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" t="s">
         <v>62</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>88</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="L16" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M16" s="2">
-        <v>120</v>
-      </c>
-      <c r="N16" s="2">
-        <v>100</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="2" t="s">
+      <c r="L16">
+        <v>10000000</v>
+      </c>
+      <c r="M16">
+        <v>120</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" t="s">
         <v>65</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>87</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="L17" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M17" s="2">
-        <v>120</v>
-      </c>
-      <c r="N17" s="2">
-        <v>100</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2" t="s">
+      <c r="L17">
+        <v>10000000</v>
+      </c>
+      <c r="M17">
+        <v>120</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>86</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="L18" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M18" s="2">
-        <v>120</v>
-      </c>
-      <c r="N18" s="2">
-        <v>100</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="2" t="s">
+      <c r="L18">
+        <v>10000000</v>
+      </c>
+      <c r="M18">
+        <v>120</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="s">
         <v>71</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>85</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="L19" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M19" s="2">
-        <v>120</v>
-      </c>
-      <c r="N19" s="2">
-        <v>100</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="L19">
+        <v>10000000</v>
+      </c>
+      <c r="M19">
+        <v>120</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
         <v>74</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>84</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="L20" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M20" s="2">
-        <v>120</v>
-      </c>
-      <c r="N20" s="2">
-        <v>100</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+      <c r="L20">
+        <v>10000000</v>
+      </c>
+      <c r="M20">
+        <v>120</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="s">
         <v>77</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>83</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="L21" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M21" s="2">
-        <v>120</v>
-      </c>
-      <c r="N21" s="2">
-        <v>100</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2" t="s">
+      <c r="L21">
+        <v>10000000</v>
+      </c>
+      <c r="M21">
+        <v>120</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s">
         <v>80</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>82</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="L22" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M22" s="2">
-        <v>120</v>
-      </c>
-      <c r="N22" s="2">
-        <v>100</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="2" t="s">
+      <c r="L22">
+        <v>10000000</v>
+      </c>
+      <c r="M22">
+        <v>120</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
         <v>83</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>81</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M23" s="2">
-        <v>120</v>
-      </c>
-      <c r="N23" s="2">
-        <v>100</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="2" t="s">
+      <c r="L23">
+        <v>10000000</v>
+      </c>
+      <c r="M23">
+        <v>120</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="s">
         <v>87</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>80</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M24" s="2">
-        <v>120</v>
-      </c>
-      <c r="N24" s="2">
-        <v>100</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="2" t="s">
+      <c r="L24">
+        <v>10000000</v>
+      </c>
+      <c r="M24">
+        <v>120</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="s">
         <v>92</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>79</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
         <v>95</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M25" s="2">
-        <v>120</v>
-      </c>
-      <c r="N25" s="2">
-        <v>100</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="2" t="s">
+      <c r="L25">
+        <v>10000000</v>
+      </c>
+      <c r="M25">
+        <v>120</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="s">
         <v>97</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>78</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>6</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" t="s">
         <v>95</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" t="s">
         <v>96</v>
       </c>
-      <c r="L26" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M26" s="2">
-        <v>120</v>
-      </c>
-      <c r="N26" s="2">
-        <v>100</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R26" s="2" t="s">
+      <c r="L26">
+        <v>10000000</v>
+      </c>
+      <c r="M26">
+        <v>120</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>100</v>
+      </c>
+      <c r="R26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>77</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>6</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>95</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
         <v>96</v>
       </c>
-      <c r="L27" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M27" s="2">
-        <v>120</v>
-      </c>
-      <c r="N27" s="2">
-        <v>100</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="2" t="s">
+      <c r="L27">
+        <v>10000000</v>
+      </c>
+      <c r="M27">
+        <v>120</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" t="s">
         <v>103</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="R27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>76</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H28" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M28" s="2">
-        <v>120</v>
-      </c>
-      <c r="N28" s="2">
-        <v>100</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
+      <c r="L28">
+        <v>10000000</v>
+      </c>
+      <c r="M28">
+        <v>120</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="s">
         <v>108</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="R28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>75</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H29" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M29" s="2">
-        <v>120</v>
-      </c>
-      <c r="N29" s="2">
-        <v>100</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="2" t="s">
+      <c r="L29">
+        <v>10000000</v>
+      </c>
+      <c r="M29">
+        <v>120</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" t="s">
         <v>108</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="R29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>74</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H30" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" t="s">
         <v>114</v>
       </c>
-      <c r="L30" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M30" s="2">
-        <v>120</v>
-      </c>
-      <c r="N30" s="2">
-        <v>100</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="2" t="s">
+      <c r="L30">
+        <v>10000000</v>
+      </c>
+      <c r="M30">
+        <v>120</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" t="s">
         <v>108</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="R30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>73</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H31" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" t="s">
         <v>117</v>
       </c>
-      <c r="L31" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M31" s="2">
-        <v>120</v>
-      </c>
-      <c r="N31" s="2">
-        <v>100</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="2" t="s">
+      <c r="L31">
+        <v>10000000</v>
+      </c>
+      <c r="M31">
+        <v>120</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" t="s">
         <v>118</v>
       </c>
-      <c r="R31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="R31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>72</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="D32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H32" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" t="s">
         <v>121</v>
       </c>
-      <c r="L32" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M32" s="2">
-        <v>120</v>
-      </c>
-      <c r="N32" s="2">
-        <v>100</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2" t="s">
+      <c r="L32">
+        <v>10000000</v>
+      </c>
+      <c r="M32">
+        <v>120</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" t="s">
         <v>118</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="R32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>71</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H33" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" t="s">
         <v>124</v>
       </c>
-      <c r="L33" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M33" s="2">
-        <v>120</v>
-      </c>
-      <c r="N33" s="2">
-        <v>100</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="2" t="s">
+      <c r="L33">
+        <v>10000000</v>
+      </c>
+      <c r="M33">
+        <v>120</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" t="s">
         <v>118</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="R33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>70</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H34" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M34" s="2">
-        <v>120</v>
-      </c>
-      <c r="N34" s="2">
-        <v>100</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="2" t="s">
+      <c r="L34">
+        <v>10000000</v>
+      </c>
+      <c r="M34">
+        <v>120</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="O34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" t="s">
         <v>128</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="R34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>69</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H35" t="s">
         <v>106</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" t="s">
         <v>131</v>
       </c>
-      <c r="L35" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M35" s="2">
-        <v>120</v>
-      </c>
-      <c r="N35" s="2">
-        <v>100</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="2" t="s">
+      <c r="L35">
+        <v>10000000</v>
+      </c>
+      <c r="M35">
+        <v>120</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="O35" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" t="s">
         <v>128</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="R35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>68</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H36" t="s">
         <v>106</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" t="s">
         <v>134</v>
       </c>
-      <c r="L36" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M36" s="2">
-        <v>120</v>
-      </c>
-      <c r="N36" s="2">
-        <v>100</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="2" t="s">
+      <c r="L36">
+        <v>10000000</v>
+      </c>
+      <c r="M36">
+        <v>120</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+      <c r="O36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" t="s">
         <v>128</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="R36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>67</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H37" t="s">
         <v>106</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" t="s">
         <v>137</v>
       </c>
-      <c r="L37" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M37" s="2">
-        <v>120</v>
-      </c>
-      <c r="N37" s="2">
-        <v>100</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="2" t="s">
+      <c r="L37">
+        <v>10000000</v>
+      </c>
+      <c r="M37">
+        <v>120</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
+      </c>
+      <c r="O37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" t="s">
         <v>138</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="R37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>66</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H38" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" t="s">
         <v>141</v>
       </c>
-      <c r="L38" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M38" s="2">
-        <v>120</v>
-      </c>
-      <c r="N38" s="2">
-        <v>100</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="2" t="s">
+      <c r="L38">
+        <v>10000000</v>
+      </c>
+      <c r="M38">
+        <v>120</v>
+      </c>
+      <c r="N38">
+        <v>100</v>
+      </c>
+      <c r="O38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" t="s">
         <v>138</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="R38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>65</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>143</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H39" t="s">
         <v>106</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" t="s">
         <v>144</v>
       </c>
-      <c r="L39" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M39" s="2">
-        <v>120</v>
-      </c>
-      <c r="N39" s="2">
-        <v>100</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="2" t="s">
+      <c r="L39">
+        <v>10000000</v>
+      </c>
+      <c r="M39">
+        <v>120</v>
+      </c>
+      <c r="N39">
+        <v>100</v>
+      </c>
+      <c r="O39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" t="s">
         <v>138</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="R39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>64</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>146</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H40" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" t="s">
         <v>147</v>
       </c>
-      <c r="L40" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M40" s="2">
-        <v>120</v>
-      </c>
-      <c r="N40" s="2">
-        <v>100</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="2" t="s">
+      <c r="L40">
+        <v>10000000</v>
+      </c>
+      <c r="M40">
+        <v>120</v>
+      </c>
+      <c r="N40">
+        <v>100</v>
+      </c>
+      <c r="O40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" t="s">
         <v>148</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="R40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>63</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>150</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H41" t="s">
         <v>106</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
         <v>151</v>
       </c>
-      <c r="L41" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M41" s="2">
-        <v>120</v>
-      </c>
-      <c r="N41" s="2">
-        <v>100</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="2" t="s">
+      <c r="L41">
+        <v>10000000</v>
+      </c>
+      <c r="M41">
+        <v>120</v>
+      </c>
+      <c r="N41">
+        <v>100</v>
+      </c>
+      <c r="O41" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" t="s">
         <v>148</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="R41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>62</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H42" t="s">
         <v>106</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
         <v>154</v>
       </c>
-      <c r="L42" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M42" s="2">
-        <v>120</v>
-      </c>
-      <c r="N42" s="2">
-        <v>100</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="2" t="s">
+      <c r="L42">
+        <v>10000000</v>
+      </c>
+      <c r="M42">
+        <v>120</v>
+      </c>
+      <c r="N42">
+        <v>100</v>
+      </c>
+      <c r="O42" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" t="s">
         <v>155</v>
       </c>
-      <c r="R42" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="R42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>61</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>157</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H43" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" t="s">
         <v>158</v>
       </c>
-      <c r="L43" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M43" s="2">
-        <v>120</v>
-      </c>
-      <c r="N43" s="2">
-        <v>100</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="2" t="s">
+      <c r="L43">
+        <v>10000000</v>
+      </c>
+      <c r="M43">
+        <v>120</v>
+      </c>
+      <c r="N43">
+        <v>100</v>
+      </c>
+      <c r="O43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="s">
         <v>155</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="R43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>60</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>5</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H44" t="s">
         <v>106</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" t="s">
         <v>161</v>
       </c>
-      <c r="L44" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M44" s="2">
-        <v>120</v>
-      </c>
-      <c r="N44" s="2">
-        <v>100</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="2" t="s">
+      <c r="L44">
+        <v>10000000</v>
+      </c>
+      <c r="M44">
+        <v>120</v>
+      </c>
+      <c r="N44">
+        <v>100</v>
+      </c>
+      <c r="O44" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" t="s">
         <v>162</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="R44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>59</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F45" s="2"/>
+      <c r="H45" t="s">
         <v>106</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" t="s">
         <v>165</v>
       </c>
-      <c r="L45" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M45" s="2">
-        <v>120</v>
-      </c>
-      <c r="N45" s="2">
-        <v>100</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="2" t="s">
+      <c r="L45">
+        <v>10000000</v>
+      </c>
+      <c r="M45">
+        <v>120</v>
+      </c>
+      <c r="N45">
+        <v>100</v>
+      </c>
+      <c r="O45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" t="s">
         <v>162</v>
       </c>
-      <c r="R45" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="R45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>58</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>167</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H46" t="s">
         <v>106</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" t="s">
         <v>168</v>
       </c>
-      <c r="L46" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M46" s="2">
-        <v>120</v>
-      </c>
-      <c r="N46" s="2">
-        <v>100</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="2" t="s">
+      <c r="L46">
+        <v>10000000</v>
+      </c>
+      <c r="M46">
+        <v>120</v>
+      </c>
+      <c r="N46">
+        <v>100</v>
+      </c>
+      <c r="O46" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" t="s">
         <v>162</v>
       </c>
-      <c r="R46" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="R46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>57</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>170</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="E47" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H47" t="s">
         <v>106</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" t="s">
         <v>171</v>
       </c>
-      <c r="L47" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M47" s="2">
-        <v>120</v>
-      </c>
-      <c r="N47" s="2">
-        <v>100</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="2" t="s">
+      <c r="L47">
+        <v>10000000</v>
+      </c>
+      <c r="M47">
+        <v>120</v>
+      </c>
+      <c r="N47">
+        <v>100</v>
+      </c>
+      <c r="O47" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" t="s">
         <v>172</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="R47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>56</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>5</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>173</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>174</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="F48" s="2"/>
+      <c r="H48" t="s">
         <v>106</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" t="s">
         <v>175</v>
       </c>
-      <c r="L48" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M48" s="2">
-        <v>120</v>
-      </c>
-      <c r="N48" s="2">
-        <v>100</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="2" t="s">
+      <c r="L48">
+        <v>10000000</v>
+      </c>
+      <c r="M48">
+        <v>120</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+      <c r="O48" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" t="s">
         <v>172</v>
       </c>
-      <c r="R48" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="R48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>55</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s">
         <v>177</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H49" t="s">
         <v>106</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" t="s">
         <v>178</v>
       </c>
-      <c r="L49" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M49" s="2">
-        <v>120</v>
-      </c>
-      <c r="N49" s="2">
-        <v>100</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="2" t="s">
+      <c r="L49">
+        <v>10000000</v>
+      </c>
+      <c r="M49">
+        <v>120</v>
+      </c>
+      <c r="N49">
+        <v>100</v>
+      </c>
+      <c r="O49" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" t="s">
         <v>172</v>
       </c>
-      <c r="R49" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="R49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>54</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>5</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>180</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="E50" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H50" t="s">
         <v>106</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" t="s">
         <v>181</v>
       </c>
-      <c r="L50" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M50" s="2">
-        <v>120</v>
-      </c>
-      <c r="N50" s="2">
-        <v>100</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="2" t="s">
+      <c r="L50">
+        <v>10000000</v>
+      </c>
+      <c r="M50">
+        <v>120</v>
+      </c>
+      <c r="N50">
+        <v>100</v>
+      </c>
+      <c r="O50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" t="s">
         <v>182</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="R50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>53</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>5</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" t="s">
         <v>184</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="F51" s="2"/>
+      <c r="H51" t="s">
         <v>106</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" t="s">
         <v>185</v>
       </c>
-      <c r="L51" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M51" s="2">
-        <v>120</v>
-      </c>
-      <c r="N51" s="2">
-        <v>100</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="2" t="s">
+      <c r="L51">
+        <v>10000000</v>
+      </c>
+      <c r="M51">
+        <v>120</v>
+      </c>
+      <c r="N51">
+        <v>100</v>
+      </c>
+      <c r="O51" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" t="s">
         <v>182</v>
       </c>
-      <c r="R51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="R51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>5</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" t="s">
         <v>187</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="F52" s="2"/>
+      <c r="H52" t="s">
         <v>106</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" t="s">
         <v>188</v>
       </c>
-      <c r="L52" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M52" s="2">
-        <v>120</v>
-      </c>
-      <c r="N52" s="2">
-        <v>100</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="2" t="s">
+      <c r="L52">
+        <v>10000000</v>
+      </c>
+      <c r="M52">
+        <v>120</v>
+      </c>
+      <c r="N52">
+        <v>100</v>
+      </c>
+      <c r="O52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" t="s">
         <v>182</v>
       </c>
-      <c r="R52" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="R52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s">
         <v>190</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H53" t="s">
         <v>106</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" t="s">
         <v>191</v>
       </c>
-      <c r="L53" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M53" s="2">
-        <v>120</v>
-      </c>
-      <c r="N53" s="2">
-        <v>100</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="2" t="s">
+      <c r="L53">
+        <v>10000000</v>
+      </c>
+      <c r="M53">
+        <v>120</v>
+      </c>
+      <c r="N53">
+        <v>100</v>
+      </c>
+      <c r="O53" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" t="s">
         <v>192</v>
       </c>
-      <c r="R53" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>50</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="R53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
         <v>5</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>194</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H54" t="s">
         <v>106</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" t="s">
         <v>195</v>
       </c>
-      <c r="L54" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M54" s="2">
-        <v>120</v>
-      </c>
-      <c r="N54" s="2">
-        <v>100</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="2" t="s">
+      <c r="L54">
+        <v>10000000</v>
+      </c>
+      <c r="M54">
+        <v>120</v>
+      </c>
+      <c r="N54">
+        <v>100</v>
+      </c>
+      <c r="O54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" t="s">
         <v>192</v>
       </c>
-      <c r="R54" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="R54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>49</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>196</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s">
         <v>197</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H55" t="s">
         <v>106</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" t="s">
         <v>198</v>
       </c>
-      <c r="L55" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M55" s="2">
-        <v>120</v>
-      </c>
-      <c r="N55" s="2">
-        <v>100</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="2" t="s">
+      <c r="L55">
+        <v>10000000</v>
+      </c>
+      <c r="M55">
+        <v>120</v>
+      </c>
+      <c r="N55">
+        <v>100</v>
+      </c>
+      <c r="O55" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" t="s">
         <v>192</v>
       </c>
-      <c r="R55" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="R55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>48</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>199</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>200</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H56" t="s">
         <v>106</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" t="s">
         <v>201</v>
       </c>
-      <c r="L56" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M56" s="2">
-        <v>120</v>
-      </c>
-      <c r="N56" s="2">
-        <v>100</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="2" t="s">
+      <c r="L56">
+        <v>10000000</v>
+      </c>
+      <c r="M56">
+        <v>120</v>
+      </c>
+      <c r="N56">
+        <v>100</v>
+      </c>
+      <c r="O56" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" t="s">
         <v>202</v>
       </c>
-      <c r="R56" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="R56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>47</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>5</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="E57" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H57" t="s">
         <v>106</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" t="s">
         <v>205</v>
       </c>
-      <c r="L57" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M57" s="2">
-        <v>120</v>
-      </c>
-      <c r="N57" s="2">
-        <v>100</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q57" s="2" t="s">
+      <c r="L57">
+        <v>10000000</v>
+      </c>
+      <c r="M57">
+        <v>120</v>
+      </c>
+      <c r="N57">
+        <v>100</v>
+      </c>
+      <c r="O57" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" t="s">
         <v>202</v>
       </c>
-      <c r="R57" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="R57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>46</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>5</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>207</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H58" t="s">
         <v>106</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" t="s">
         <v>208</v>
       </c>
-      <c r="L58" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M58" s="2">
-        <v>120</v>
-      </c>
-      <c r="N58" s="2">
-        <v>100</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="2" t="s">
+      <c r="L58">
+        <v>10000000</v>
+      </c>
+      <c r="M58">
+        <v>120</v>
+      </c>
+      <c r="N58">
+        <v>100</v>
+      </c>
+      <c r="O58" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" t="s">
         <v>202</v>
       </c>
-      <c r="R58" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="R58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>45</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>209</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>210</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H59" t="s">
         <v>106</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" t="s">
         <v>211</v>
       </c>
-      <c r="L59" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M59" s="2">
-        <v>120</v>
-      </c>
-      <c r="N59" s="2">
-        <v>100</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q59" s="2" t="s">
+      <c r="L59">
+        <v>10000000</v>
+      </c>
+      <c r="M59">
+        <v>120</v>
+      </c>
+      <c r="N59">
+        <v>100</v>
+      </c>
+      <c r="O59" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" t="s">
         <v>212</v>
       </c>
-      <c r="R59" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="R59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>44</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>5</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>213</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>214</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H60" t="s">
         <v>106</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" t="s">
         <v>215</v>
       </c>
-      <c r="L60" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M60" s="2">
-        <v>120</v>
-      </c>
-      <c r="N60" s="2">
-        <v>100</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q60" s="2" t="s">
+      <c r="L60">
+        <v>10000000</v>
+      </c>
+      <c r="M60">
+        <v>120</v>
+      </c>
+      <c r="N60">
+        <v>100</v>
+      </c>
+      <c r="O60" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" t="s">
         <v>212</v>
       </c>
-      <c r="R60" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="R60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>43</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>5</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>217</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H61" t="s">
         <v>106</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" t="s">
         <v>218</v>
       </c>
-      <c r="L61" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M61" s="2">
-        <v>120</v>
-      </c>
-      <c r="N61" s="2">
-        <v>100</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q61" s="2" t="s">
+      <c r="L61">
+        <v>10000000</v>
+      </c>
+      <c r="M61">
+        <v>120</v>
+      </c>
+      <c r="N61">
+        <v>100</v>
+      </c>
+      <c r="O61" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" t="s">
         <v>212</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="R61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62">
         <v>42</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>4</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>219</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>220</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" t="s">
         <v>90</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" t="s">
         <v>221</v>
       </c>
-      <c r="L62" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M62" s="2">
-        <v>120</v>
-      </c>
-      <c r="N62" s="2">
-        <v>100</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q62" s="2" t="s">
+      <c r="L62">
+        <v>10000000</v>
+      </c>
+      <c r="M62">
+        <v>120</v>
+      </c>
+      <c r="N62">
+        <v>100</v>
+      </c>
+      <c r="O62" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" t="s">
         <v>222</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="R62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63">
         <v>41</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>4</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s">
         <v>224</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" t="s">
         <v>90</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" t="s">
         <v>225</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" t="s">
         <v>226</v>
       </c>
-      <c r="L63" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M63" s="2">
-        <v>120</v>
-      </c>
-      <c r="N63" s="2">
-        <v>100</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q63" s="2" t="s">
+      <c r="L63">
+        <v>10000000</v>
+      </c>
+      <c r="M63">
+        <v>120</v>
+      </c>
+      <c r="N63">
+        <v>100</v>
+      </c>
+      <c r="O63" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" t="s">
         <v>227</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="R63" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64">
         <v>40</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>4</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>228</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>229</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" t="s">
         <v>90</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" t="s">
         <v>225</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" t="s">
         <v>226</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64">
         <v>9999996</v>
       </c>
-      <c r="M64" s="2">
-        <v>120</v>
-      </c>
-      <c r="N64" s="2">
-        <v>100</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q64" s="2" t="s">
+      <c r="M64">
+        <v>120</v>
+      </c>
+      <c r="N64">
+        <v>100</v>
+      </c>
+      <c r="O64" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" t="s">
         <v>230</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="R64" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65">
         <v>39</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>231</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" t="s">
         <v>232</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" t="s">
         <v>90</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" t="s">
         <v>225</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" t="s">
         <v>226</v>
       </c>
-      <c r="L65" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M65" s="2">
-        <v>120</v>
-      </c>
-      <c r="N65" s="2">
-        <v>100</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q65" s="2" t="s">
+      <c r="L65">
+        <v>10000000</v>
+      </c>
+      <c r="M65">
+        <v>120</v>
+      </c>
+      <c r="N65">
+        <v>100</v>
+      </c>
+      <c r="O65" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" t="s">
         <v>233</v>
       </c>
-      <c r="R65" s="2" t="s">
+      <c r="R65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66">
         <v>38</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>4</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>234</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" t="s">
         <v>90</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" t="s">
         <v>225</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" t="s">
         <v>226</v>
       </c>
-      <c r="L66" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M66" s="2">
-        <v>120</v>
-      </c>
-      <c r="N66" s="2">
-        <v>100</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q66" s="2" t="s">
+      <c r="L66">
+        <v>10000000</v>
+      </c>
+      <c r="M66">
+        <v>120</v>
+      </c>
+      <c r="N66">
+        <v>100</v>
+      </c>
+      <c r="O66" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" t="s">
         <v>236</v>
       </c>
-      <c r="R66" s="2" t="s">
+      <c r="R66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67">
         <v>37</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>3</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>237</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" t="s">
         <v>239</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" t="s">
         <v>240</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" t="s">
         <v>241</v>
       </c>
-      <c r="L67" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M67" s="2">
-        <v>120</v>
-      </c>
-      <c r="N67" s="2">
-        <v>100</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q67" s="2" t="s">
+      <c r="L67">
+        <v>10000000</v>
+      </c>
+      <c r="M67">
+        <v>120</v>
+      </c>
+      <c r="N67">
+        <v>100</v>
+      </c>
+      <c r="O67" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" t="s">
         <v>242</v>
       </c>
-      <c r="R67" s="2" t="s">
+      <c r="R67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68">
         <v>36</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>3</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>243</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s">
         <v>244</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" t="s">
         <v>239</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" t="s">
         <v>240</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" t="s">
         <v>241</v>
       </c>
-      <c r="L68" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M68" s="2">
-        <v>120</v>
-      </c>
-      <c r="N68" s="2">
-        <v>100</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q68" s="2" t="s">
+      <c r="L68">
+        <v>10000000</v>
+      </c>
+      <c r="M68">
+        <v>120</v>
+      </c>
+      <c r="N68">
+        <v>100</v>
+      </c>
+      <c r="O68" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" t="s">
         <v>245</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="R68" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69">
         <v>35</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>3</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>246</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" t="s">
         <v>247</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" t="s">
         <v>239</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" t="s">
         <v>240</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" t="s">
         <v>241</v>
       </c>
-      <c r="L69" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M69" s="2">
-        <v>120</v>
-      </c>
-      <c r="N69" s="2">
-        <v>100</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q69" s="2" t="s">
+      <c r="L69">
+        <v>10000000</v>
+      </c>
+      <c r="M69">
+        <v>120</v>
+      </c>
+      <c r="N69">
+        <v>100</v>
+      </c>
+      <c r="O69" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" t="s">
         <v>248</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="R69" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70">
         <v>34</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>3</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>249</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s">
         <v>250</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" t="s">
         <v>239</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" t="s">
         <v>240</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" t="s">
         <v>251</v>
       </c>
-      <c r="L70" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M70" s="2">
-        <v>120</v>
-      </c>
-      <c r="N70" s="2">
-        <v>100</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="2" t="s">
+      <c r="L70">
+        <v>10000000</v>
+      </c>
+      <c r="M70">
+        <v>120</v>
+      </c>
+      <c r="N70">
+        <v>100</v>
+      </c>
+      <c r="O70" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" t="s">
         <v>252</v>
       </c>
-      <c r="R70" s="2" t="s">
+      <c r="R70" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71">
         <v>33</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>3</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>253</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>254</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" t="s">
         <v>239</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" t="s">
         <v>240</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" t="s">
         <v>251</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71">
         <v>9999880</v>
       </c>
-      <c r="M71" s="2">
-        <v>120</v>
-      </c>
-      <c r="N71" s="2">
-        <v>100</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="2" t="s">
+      <c r="M71">
+        <v>120</v>
+      </c>
+      <c r="N71">
+        <v>100</v>
+      </c>
+      <c r="O71" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" t="s">
         <v>255</v>
       </c>
-      <c r="R71" s="2" t="s">
+      <c r="R71" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72">
         <v>32</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>3</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>256</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s">
         <v>257</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" t="s">
         <v>239</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" t="s">
         <v>240</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" t="s">
         <v>251</v>
       </c>
-      <c r="L72" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M72" s="2">
-        <v>120</v>
-      </c>
-      <c r="N72" s="2">
-        <v>100</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="2" t="s">
+      <c r="L72">
+        <v>10000000</v>
+      </c>
+      <c r="M72">
+        <v>120</v>
+      </c>
+      <c r="N72">
+        <v>100</v>
+      </c>
+      <c r="O72" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" t="s">
         <v>258</v>
       </c>
-      <c r="R72" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="R72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>31</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>259</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s">
         <v>260</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" t="s">
         <v>261</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" t="s">
         <v>262</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" t="s">
         <v>263</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" t="s">
         <v>264</v>
       </c>
-      <c r="L73" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M73" s="2">
-        <v>120</v>
-      </c>
-      <c r="N73" s="2">
-        <v>100</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="2" t="s">
+      <c r="L73">
+        <v>10000000</v>
+      </c>
+      <c r="M73">
+        <v>120</v>
+      </c>
+      <c r="N73">
+        <v>100</v>
+      </c>
+      <c r="O73" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" t="s">
         <v>265</v>
       </c>
-      <c r="R73" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="R73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>30</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>266</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>267</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" t="s">
         <v>268</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" t="s">
         <v>262</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" t="s">
         <v>263</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" t="s">
         <v>264</v>
       </c>
-      <c r="L74" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M74" s="2">
-        <v>120</v>
-      </c>
-      <c r="N74" s="2">
-        <v>100</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="2" t="s">
+      <c r="L74">
+        <v>10000000</v>
+      </c>
+      <c r="M74">
+        <v>120</v>
+      </c>
+      <c r="N74">
+        <v>100</v>
+      </c>
+      <c r="O74" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" t="s">
         <v>269</v>
       </c>
-      <c r="R74" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="R74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>29</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" t="s">
         <v>272</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" t="s">
         <v>273</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" t="s">
         <v>274</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" t="s">
         <v>275</v>
       </c>
-      <c r="L75" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M75" s="2">
-        <v>120</v>
-      </c>
-      <c r="N75" s="2">
-        <v>100</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q75" s="2" t="s">
+      <c r="L75">
+        <v>10000000</v>
+      </c>
+      <c r="M75">
+        <v>120</v>
+      </c>
+      <c r="N75">
+        <v>100</v>
+      </c>
+      <c r="O75" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" t="s">
         <v>276</v>
       </c>
-      <c r="R75" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="R75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>28</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s">
         <v>277</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" t="s">
         <v>278</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" t="s">
         <v>272</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" t="s">
         <v>273</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" t="s">
         <v>274</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" t="s">
         <v>275</v>
       </c>
-      <c r="L76" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M76" s="2">
-        <v>120</v>
-      </c>
-      <c r="N76" s="2">
-        <v>100</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q76" s="2" t="s">
+      <c r="L76">
+        <v>10000000</v>
+      </c>
+      <c r="M76">
+        <v>120</v>
+      </c>
+      <c r="N76">
+        <v>100</v>
+      </c>
+      <c r="O76" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" t="s">
         <v>279</v>
       </c>
-      <c r="R76" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="R76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>27</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>2</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s">
         <v>280</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" t="s">
         <v>281</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" t="s">
         <v>272</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" t="s">
         <v>273</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" t="s">
         <v>282</v>
       </c>
-      <c r="L77" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M77" s="2">
-        <v>120</v>
-      </c>
-      <c r="N77" s="2">
-        <v>100</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q77" s="2" t="s">
+      <c r="L77">
+        <v>10000000</v>
+      </c>
+      <c r="M77">
+        <v>120</v>
+      </c>
+      <c r="N77">
+        <v>100</v>
+      </c>
+      <c r="O77" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" t="s">
         <v>283</v>
       </c>
-      <c r="R77" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="R77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>26</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>2</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>284</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" t="s">
         <v>285</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" t="s">
         <v>272</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" t="s">
         <v>273</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" t="s">
         <v>282</v>
       </c>
-      <c r="L78" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M78" s="2">
-        <v>120</v>
-      </c>
-      <c r="N78" s="2">
-        <v>100</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q78" s="2" t="s">
+      <c r="L78">
+        <v>10000000</v>
+      </c>
+      <c r="M78">
+        <v>120</v>
+      </c>
+      <c r="N78">
+        <v>100</v>
+      </c>
+      <c r="O78" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" t="s">
         <v>286</v>
       </c>
-      <c r="R78" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="R78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>25</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>287</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" t="s">
         <v>288</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" t="s">
         <v>272</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" t="s">
         <v>273</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" t="s">
         <v>282</v>
       </c>
-      <c r="L79" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M79" s="2">
-        <v>120</v>
-      </c>
-      <c r="N79" s="2">
-        <v>100</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q79" s="2" t="s">
+      <c r="L79">
+        <v>10000000</v>
+      </c>
+      <c r="M79">
+        <v>120</v>
+      </c>
+      <c r="N79">
+        <v>100</v>
+      </c>
+      <c r="O79" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" t="s">
         <v>289</v>
       </c>
-      <c r="R79" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="R79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>24</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>290</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" t="s">
         <v>291</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" t="s">
         <v>272</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" t="s">
         <v>273</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" t="s">
         <v>282</v>
       </c>
-      <c r="L80" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M80" s="2">
-        <v>120</v>
-      </c>
-      <c r="N80" s="2">
-        <v>100</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q80" s="2" t="s">
+      <c r="L80">
+        <v>10000000</v>
+      </c>
+      <c r="M80">
+        <v>120</v>
+      </c>
+      <c r="N80">
+        <v>100</v>
+      </c>
+      <c r="O80" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" t="s">
         <v>292</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="R80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>23</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s">
         <v>293</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" t="s">
         <v>294</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" t="s">
         <v>272</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" t="s">
         <v>273</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="K81" t="s">
         <v>282</v>
       </c>
-      <c r="L81" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M81" s="2">
-        <v>120</v>
-      </c>
-      <c r="N81" s="2">
-        <v>100</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q81" s="2" t="s">
+      <c r="L81">
+        <v>10000000</v>
+      </c>
+      <c r="M81">
+        <v>120</v>
+      </c>
+      <c r="N81">
+        <v>100</v>
+      </c>
+      <c r="O81" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q81" t="s">
         <v>295</v>
       </c>
-      <c r="R81" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="R81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>22</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>2</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s">
         <v>296</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" t="s">
         <v>297</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" t="s">
         <v>272</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" t="s">
         <v>273</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" t="s">
         <v>282</v>
       </c>
-      <c r="L82" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M82" s="2">
-        <v>120</v>
-      </c>
-      <c r="N82" s="2">
-        <v>100</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q82" s="2" t="s">
+      <c r="L82">
+        <v>10000000</v>
+      </c>
+      <c r="M82">
+        <v>120</v>
+      </c>
+      <c r="N82">
+        <v>100</v>
+      </c>
+      <c r="O82" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q82" t="s">
         <v>298</v>
       </c>
-      <c r="R82" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="R82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>21</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>2</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>299</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" t="s">
         <v>300</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" t="s">
         <v>272</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" t="s">
         <v>301</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" t="s">
         <v>302</v>
       </c>
-      <c r="L83" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M83" s="2">
-        <v>120</v>
-      </c>
-      <c r="N83" s="2">
-        <v>100</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q83" s="2" t="s">
+      <c r="L83">
+        <v>10000000</v>
+      </c>
+      <c r="M83">
+        <v>120</v>
+      </c>
+      <c r="N83">
+        <v>100</v>
+      </c>
+      <c r="O83" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q83" t="s">
         <v>303</v>
       </c>
-      <c r="R83" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>20</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="R83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>20</v>
+      </c>
+      <c r="B84">
         <v>2</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>304</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s">
         <v>305</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" t="s">
         <v>272</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" t="s">
         <v>301</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" t="s">
         <v>302</v>
       </c>
-      <c r="L84" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M84" s="2">
-        <v>120</v>
-      </c>
-      <c r="N84" s="2">
-        <v>100</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q84" s="2" t="s">
+      <c r="L84">
+        <v>10000000</v>
+      </c>
+      <c r="M84">
+        <v>120</v>
+      </c>
+      <c r="N84">
+        <v>100</v>
+      </c>
+      <c r="O84" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q84" t="s">
         <v>306</v>
       </c>
-      <c r="R84" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="R84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>19</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>2</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s">
         <v>307</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" t="s">
         <v>308</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" t="s">
         <v>272</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" t="s">
         <v>301</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" t="s">
         <v>302</v>
       </c>
-      <c r="L85" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M85" s="2">
-        <v>120</v>
-      </c>
-      <c r="N85" s="2">
-        <v>100</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q85" s="2" t="s">
+      <c r="L85">
+        <v>10000000</v>
+      </c>
+      <c r="M85">
+        <v>120</v>
+      </c>
+      <c r="N85">
+        <v>100</v>
+      </c>
+      <c r="O85" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q85" t="s">
         <v>309</v>
       </c>
-      <c r="R85" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="R85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>18</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>2</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" t="s">
         <v>310</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" t="s">
         <v>311</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" t="s">
         <v>272</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" t="s">
         <v>301</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" t="s">
         <v>302</v>
       </c>
-      <c r="L86" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M86" s="2">
-        <v>120</v>
-      </c>
-      <c r="N86" s="2">
-        <v>100</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q86" s="2" t="s">
+      <c r="L86">
+        <v>10000000</v>
+      </c>
+      <c r="M86">
+        <v>120</v>
+      </c>
+      <c r="N86">
+        <v>100</v>
+      </c>
+      <c r="O86" t="s">
+        <v>20</v>
+      </c>
+      <c r="P86" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q86" t="s">
         <v>312</v>
       </c>
-      <c r="R86" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="R86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>17</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>2</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s">
         <v>313</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" t="s">
         <v>314</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" t="s">
         <v>301</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" t="s">
         <v>302</v>
       </c>
-      <c r="L87" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M87" s="2">
-        <v>120</v>
-      </c>
-      <c r="N87" s="2">
-        <v>100</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q87" s="2" t="s">
+      <c r="L87">
+        <v>10000000</v>
+      </c>
+      <c r="M87">
+        <v>120</v>
+      </c>
+      <c r="N87">
+        <v>100</v>
+      </c>
+      <c r="O87" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q87" t="s">
         <v>315</v>
       </c>
-      <c r="R87" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="R87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>16</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s">
         <v>316</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" t="s">
         <v>317</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" t="s">
         <v>272</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" t="s">
         <v>301</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" t="s">
         <v>302</v>
       </c>
-      <c r="L88" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M88" s="2">
-        <v>120</v>
-      </c>
-      <c r="N88" s="2">
-        <v>100</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q88" s="2" t="s">
+      <c r="L88">
+        <v>10000000</v>
+      </c>
+      <c r="M88">
+        <v>120</v>
+      </c>
+      <c r="N88">
+        <v>100</v>
+      </c>
+      <c r="O88" t="s">
+        <v>20</v>
+      </c>
+      <c r="P88" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q88" t="s">
         <v>318</v>
       </c>
-      <c r="R88" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="R88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>15</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>2</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s">
         <v>319</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" t="s">
         <v>320</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" t="s">
         <v>321</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" t="s">
         <v>322</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I89" t="s">
         <v>301</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" t="s">
         <v>323</v>
       </c>
-      <c r="L89" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M89" s="2">
-        <v>120</v>
-      </c>
-      <c r="N89" s="2">
-        <v>100</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q89" s="2" t="s">
+      <c r="L89">
+        <v>10000000</v>
+      </c>
+      <c r="M89">
+        <v>120</v>
+      </c>
+      <c r="N89">
+        <v>100</v>
+      </c>
+      <c r="O89" t="s">
+        <v>20</v>
+      </c>
+      <c r="P89" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q89" t="s">
         <v>324</v>
       </c>
-      <c r="R89" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="R89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>14</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>2</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" t="s">
         <v>325</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" t="s">
         <v>326</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" t="s">
         <v>327</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" t="s">
         <v>322</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" t="s">
         <v>301</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" t="s">
         <v>323</v>
       </c>
-      <c r="L90" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M90" s="2">
-        <v>120</v>
-      </c>
-      <c r="N90" s="2">
-        <v>100</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q90" s="2" t="s">
+      <c r="L90">
+        <v>10000000</v>
+      </c>
+      <c r="M90">
+        <v>120</v>
+      </c>
+      <c r="N90">
+        <v>100</v>
+      </c>
+      <c r="O90" t="s">
+        <v>20</v>
+      </c>
+      <c r="P90" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q90" t="s">
         <v>328</v>
       </c>
-      <c r="R90" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="R90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>13</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" t="s">
         <v>329</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" t="s">
         <v>330</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" t="s">
         <v>331</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" t="s">
         <v>322</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" t="s">
         <v>301</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" t="s">
         <v>323</v>
       </c>
-      <c r="L91" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M91" s="2">
-        <v>120</v>
-      </c>
-      <c r="N91" s="2">
-        <v>100</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q91" s="2" t="s">
+      <c r="L91">
+        <v>10000000</v>
+      </c>
+      <c r="M91">
+        <v>120</v>
+      </c>
+      <c r="N91">
+        <v>100</v>
+      </c>
+      <c r="O91" t="s">
+        <v>20</v>
+      </c>
+      <c r="P91" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q91" t="s">
         <v>332</v>
       </c>
-      <c r="R91" s="2" t="s">
+      <c r="R91" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92">
         <v>12</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" t="s">
         <v>333</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>334</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" t="s">
         <v>335</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" t="s">
         <v>90</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" t="s">
         <v>336</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" t="s">
         <v>337</v>
       </c>
-      <c r="L92" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M92" s="2">
-        <v>120</v>
-      </c>
-      <c r="N92" s="2">
-        <v>100</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q92" s="2" t="s">
+      <c r="L92">
+        <v>10000000</v>
+      </c>
+      <c r="M92">
+        <v>120</v>
+      </c>
+      <c r="N92">
+        <v>100</v>
+      </c>
+      <c r="O92" t="s">
+        <v>20</v>
+      </c>
+      <c r="P92" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q92" t="s">
         <v>338</v>
       </c>
-      <c r="R92" s="2" t="s">
+      <c r="R92" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93">
         <v>11</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" t="s">
         <v>339</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" t="s">
         <v>340</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" t="s">
         <v>341</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" t="s">
         <v>342</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" t="s">
         <v>90</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" t="s">
         <v>343</v>
       </c>
-      <c r="L93" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M93" s="2">
-        <v>120</v>
-      </c>
-      <c r="N93" s="2">
-        <v>100</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q93" s="2" t="s">
+      <c r="L93">
+        <v>10000000</v>
+      </c>
+      <c r="M93">
+        <v>120</v>
+      </c>
+      <c r="N93">
+        <v>100</v>
+      </c>
+      <c r="O93" t="s">
+        <v>20</v>
+      </c>
+      <c r="P93" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q93" t="s">
         <v>344</v>
       </c>
-      <c r="R93" s="2" t="s">
+      <c r="R93" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94">
         <v>10</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>345</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" t="s">
         <v>346</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" t="s">
         <v>347</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" t="s">
         <v>348</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" t="s">
         <v>349</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" t="s">
         <v>350</v>
       </c>
-      <c r="L94" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M94" s="2">
-        <v>120</v>
-      </c>
-      <c r="N94" s="2">
-        <v>100</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q94" s="2" t="s">
+      <c r="L94">
+        <v>10000000</v>
+      </c>
+      <c r="M94">
+        <v>120</v>
+      </c>
+      <c r="N94">
+        <v>100</v>
+      </c>
+      <c r="O94" t="s">
+        <v>20</v>
+      </c>
+      <c r="P94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q94" t="s">
         <v>351</v>
       </c>
-      <c r="R94" s="2" t="s">
+      <c r="R94" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95">
         <v>9</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" t="s">
         <v>352</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" t="s">
         <v>353</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" t="s">
         <v>354</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" t="s">
         <v>348</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" t="s">
         <v>349</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" t="s">
         <v>350</v>
       </c>
-      <c r="L95" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M95" s="2">
-        <v>120</v>
-      </c>
-      <c r="N95" s="2">
-        <v>100</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q95" s="2" t="s">
+      <c r="L95">
+        <v>10000000</v>
+      </c>
+      <c r="M95">
+        <v>120</v>
+      </c>
+      <c r="N95">
+        <v>100</v>
+      </c>
+      <c r="O95" t="s">
+        <v>20</v>
+      </c>
+      <c r="P95" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q95" t="s">
         <v>355</v>
       </c>
-      <c r="R95" s="2" t="s">
+      <c r="R95" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96">
         <v>8</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s">
         <v>356</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" t="s">
         <v>357</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" t="s">
         <v>358</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" t="s">
         <v>348</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" t="s">
         <v>349</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" t="s">
         <v>350</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L96">
         <v>9999994</v>
       </c>
-      <c r="M96" s="2">
-        <v>120</v>
-      </c>
-      <c r="N96" s="2">
-        <v>100</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q96" s="2" t="s">
+      <c r="M96">
+        <v>120</v>
+      </c>
+      <c r="N96">
+        <v>100</v>
+      </c>
+      <c r="O96" t="s">
+        <v>20</v>
+      </c>
+      <c r="P96" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q96" t="s">
         <v>359</v>
       </c>
-      <c r="R96" s="2" t="s">
+      <c r="R96" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97">
         <v>7</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" t="s">
         <v>360</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" t="s">
         <v>361</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" t="s">
         <v>362</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" t="s">
         <v>348</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" t="s">
         <v>349</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" t="s">
         <v>350</v>
       </c>
-      <c r="L97" s="2">
+      <c r="L97">
         <v>9999995</v>
       </c>
-      <c r="M97" s="2">
-        <v>120</v>
-      </c>
-      <c r="N97" s="2">
-        <v>100</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q97" s="2" t="s">
+      <c r="M97">
+        <v>120</v>
+      </c>
+      <c r="N97">
+        <v>100</v>
+      </c>
+      <c r="O97" t="s">
+        <v>20</v>
+      </c>
+      <c r="P97" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q97" t="s">
         <v>363</v>
       </c>
-      <c r="R97" s="2" t="s">
+      <c r="R97" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98">
         <v>6</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s">
         <v>364</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" t="s">
         <v>365</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" t="s">
         <v>366</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" t="s">
         <v>367</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" t="s">
         <v>368</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" t="s">
         <v>348</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" t="s">
         <v>369</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" t="s">
         <v>350</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L98">
         <v>9999999</v>
       </c>
-      <c r="M98" s="2">
-        <v>120</v>
-      </c>
-      <c r="N98" s="2">
-        <v>100</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q98" s="2" t="s">
+      <c r="M98">
+        <v>120</v>
+      </c>
+      <c r="N98">
+        <v>100</v>
+      </c>
+      <c r="O98" t="s">
+        <v>20</v>
+      </c>
+      <c r="P98" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q98" t="s">
         <v>370</v>
       </c>
-      <c r="R98" s="2" t="s">
+      <c r="R98" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99">
         <v>5</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" t="s">
         <v>371</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" t="s">
         <v>372</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" t="s">
         <v>373</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" t="s">
         <v>374</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" t="s">
         <v>375</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" t="s">
         <v>348</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I99" t="s">
         <v>369</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" t="s">
         <v>350</v>
       </c>
-      <c r="L99" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M99" s="2">
-        <v>120</v>
-      </c>
-      <c r="N99" s="2">
-        <v>100</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q99" s="2" t="s">
+      <c r="L99">
+        <v>10000000</v>
+      </c>
+      <c r="M99">
+        <v>120</v>
+      </c>
+      <c r="N99">
+        <v>100</v>
+      </c>
+      <c r="O99" t="s">
+        <v>20</v>
+      </c>
+      <c r="P99" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q99" t="s">
         <v>376</v>
       </c>
-      <c r="R99" s="2" t="s">
+      <c r="R99" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100">
         <v>4</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" t="s">
         <v>377</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" t="s">
         <v>378</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" t="s">
         <v>379</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" t="s">
         <v>380</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" t="s">
         <v>381</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" t="s">
         <v>348</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" t="s">
         <v>369</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" t="s">
         <v>350</v>
       </c>
-      <c r="L100" s="2">
+      <c r="L100">
         <v>9999880</v>
       </c>
-      <c r="M100" s="2">
-        <v>120</v>
-      </c>
-      <c r="N100" s="2">
-        <v>100</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q100" s="2" t="s">
+      <c r="M100">
+        <v>120</v>
+      </c>
+      <c r="N100">
+        <v>100</v>
+      </c>
+      <c r="O100" t="s">
+        <v>20</v>
+      </c>
+      <c r="P100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q100" t="s">
         <v>382</v>
       </c>
-      <c r="R100" s="2" t="s">
+      <c r="R100" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101">
         <v>3</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s">
         <v>383</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" t="s">
         <v>384</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" t="s">
         <v>385</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" t="s">
         <v>386</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" t="s">
         <v>387</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" t="s">
         <v>348</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" t="s">
         <v>369</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" t="s">
         <v>350</v>
       </c>
-      <c r="L101" s="2">
+      <c r="L101">
         <v>9999991</v>
       </c>
-      <c r="M101" s="2">
-        <v>120</v>
-      </c>
-      <c r="N101" s="2">
-        <v>100</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q101" s="2" t="s">
+      <c r="M101">
+        <v>120</v>
+      </c>
+      <c r="N101">
+        <v>100</v>
+      </c>
+      <c r="O101" t="s">
+        <v>20</v>
+      </c>
+      <c r="P101" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q101" t="s">
         <v>388</v>
       </c>
-      <c r="R101" s="2" t="s">
+      <c r="R101" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102">
         <v>2</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" t="s">
         <v>389</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s">
         <v>390</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" t="s">
         <v>391</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" t="s">
         <v>392</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" t="s">
         <v>348</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" t="s">
         <v>393</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="K102" t="s">
         <v>394</v>
       </c>
-      <c r="L102" s="2">
+      <c r="L102">
         <v>9999999</v>
       </c>
-      <c r="M102" s="2">
-        <v>120</v>
-      </c>
-      <c r="N102" s="2">
-        <v>100</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q102" s="2" t="s">
+      <c r="M102">
+        <v>120</v>
+      </c>
+      <c r="N102">
+        <v>100</v>
+      </c>
+      <c r="O102" t="s">
+        <v>20</v>
+      </c>
+      <c r="P102" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q102" t="s">
         <v>395</v>
       </c>
-      <c r="R102" s="2" t="s">
+      <c r="R102" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103">
         <v>1</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" t="s">
         <v>396</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" t="s">
         <v>397</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" t="s">
         <v>398</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" t="s">
         <v>399</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" t="s">
         <v>348</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="I103" t="s">
         <v>393</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" t="s">
         <v>394</v>
       </c>
-      <c r="L103" s="2">
+      <c r="L103">
         <v>9999953</v>
       </c>
-      <c r="M103" s="2">
-        <v>120</v>
-      </c>
-      <c r="N103" s="2">
-        <v>100</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q103" s="2" t="s">
+      <c r="M103">
+        <v>120</v>
+      </c>
+      <c r="N103">
+        <v>100</v>
+      </c>
+      <c r="O103" t="s">
+        <v>20</v>
+      </c>
+      <c r="P103" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q103" t="s">
         <v>400</v>
       </c>
-      <c r="R103" s="2" t="s">
+      <c r="R103" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6358,7 +6606,7 @@
   <autoFilter ref="A1:R103" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6428,8 +6676,39 @@
     <hyperlink ref="F91" r:id="rId62" xr:uid="{4EDB3F22-BA21-40F9-A0AC-5EECEC7927B0}"/>
     <hyperlink ref="E90" r:id="rId63" xr:uid="{FCC8BC5F-AEE0-4BF6-BDCE-07BF2DB36D50}"/>
     <hyperlink ref="F90" r:id="rId64" xr:uid="{436D4E5D-FA83-4341-A4E5-EBDBC5E7F7D1}"/>
+    <hyperlink ref="E60" r:id="rId65" xr:uid="{ED19157B-702E-4686-8CD5-24BB8667D01A}"/>
+    <hyperlink ref="E57" r:id="rId66" xr:uid="{BE1500AA-B992-4E7C-A927-759BDD099BC0}"/>
+    <hyperlink ref="E54" r:id="rId67" xr:uid="{0DDE67C1-21BB-443F-8B85-B6F283AAA1AA}"/>
+    <hyperlink ref="E59" r:id="rId68" xr:uid="{464CB539-8908-4A34-863E-64B716823DEB}"/>
+    <hyperlink ref="E56" r:id="rId69" xr:uid="{275A66E6-541A-42FE-9569-0EBC2BA39DF1}"/>
+    <hyperlink ref="E53" r:id="rId70" xr:uid="{E3F225CB-58BA-41BF-AFD0-78374CF736D2}"/>
+    <hyperlink ref="E55" r:id="rId71" xr:uid="{2328AC1E-1A58-4117-AB4F-38E47397020D}"/>
+    <hyperlink ref="E58" r:id="rId72" xr:uid="{435B4140-D3F7-45FF-913E-DF64CDB042DB}"/>
+    <hyperlink ref="E61" r:id="rId73" xr:uid="{14AF6D30-32BA-4F2D-93E2-5DB8806189D6}"/>
+    <hyperlink ref="E50" r:id="rId74" xr:uid="{FCE2AD09-BDD7-425B-A871-19F6D8244C72}"/>
+    <hyperlink ref="E44" r:id="rId75" xr:uid="{8A24A681-887A-4E93-80FD-F8819E14BA14}"/>
+    <hyperlink ref="E47" r:id="rId76" xr:uid="{03E2C358-A336-49C8-925C-4F0E6A431388}"/>
+    <hyperlink ref="E46" r:id="rId77" xr:uid="{6770DF13-77E2-498D-B432-62C1B7DA7480}"/>
+    <hyperlink ref="E49" r:id="rId78" xr:uid="{0980B9B4-D9AC-4F74-8ED3-EB711FECF137}"/>
+    <hyperlink ref="E43" r:id="rId79" xr:uid="{207655E9-C8A7-4A05-B2EF-75ED312BEC91}"/>
+    <hyperlink ref="E42" r:id="rId80" xr:uid="{3BC03FBE-E3AA-4866-AA17-FB9EBA27C7DF}"/>
+    <hyperlink ref="E40" r:id="rId81" xr:uid="{566557F6-E55D-4919-9EA6-553357DB1486}"/>
+    <hyperlink ref="E41" r:id="rId82" xr:uid="{4F98599A-0C84-4718-AB56-42295F2E4DDC}"/>
+    <hyperlink ref="E38" r:id="rId83" xr:uid="{5706779C-D23E-45A2-B5BF-5D7013176F16}"/>
+    <hyperlink ref="E35" r:id="rId84" xr:uid="{5F73348E-FDCD-4B2C-8929-DA42F2DCD9F6}"/>
+    <hyperlink ref="E37" r:id="rId85" xr:uid="{A40D7F3D-FB61-4D4B-9ACC-7D284347472F}"/>
+    <hyperlink ref="E34" r:id="rId86" xr:uid="{C8724B8B-0B6C-4BC5-B020-70DD17C56201}"/>
+    <hyperlink ref="E36" r:id="rId87" xr:uid="{8436CCF9-0FB0-4985-8756-29236FFA9EDD}"/>
+    <hyperlink ref="E39" r:id="rId88" xr:uid="{82F17417-5F59-4615-9C80-C851B21DD92E}"/>
+    <hyperlink ref="E30" r:id="rId89" xr:uid="{685767A6-7066-4C57-8BEC-D42C9DA8C9B7}"/>
+    <hyperlink ref="E33" r:id="rId90" xr:uid="{2792E317-B1B6-4685-985B-46F1CA03CD07}"/>
+    <hyperlink ref="E31" r:id="rId91" xr:uid="{1E072A22-0887-45FA-A582-742D26440BF2}"/>
+    <hyperlink ref="E28" r:id="rId92" xr:uid="{4320B2D5-0CC7-4766-A52C-C110E7021C87}"/>
+    <hyperlink ref="E29" r:id="rId93" xr:uid="{4C448E1C-3DCC-4D37-B08A-073A46CB4229}"/>
+    <hyperlink ref="E32" r:id="rId94" xr:uid="{3BFF00C9-15C1-4680-9A17-CCCEF92FD310}"/>
+    <hyperlink ref="F28" r:id="rId95" xr:uid="{0FFEA4A0-211C-4336-A470-2463FCEE0BEF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>